--- a/Code/Results/Cases/Case_3_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010822420729285</v>
+        <v>1.033286581860451</v>
       </c>
       <c r="D2">
-        <v>1.027885362712782</v>
+        <v>1.038334395248997</v>
       </c>
       <c r="E2">
-        <v>1.024344471130063</v>
+        <v>1.043063984897162</v>
       </c>
       <c r="F2">
-        <v>1.032042108780721</v>
+        <v>1.05512392456556</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050726318567993</v>
+        <v>1.040041983958494</v>
       </c>
       <c r="J2">
-        <v>1.032684184108495</v>
+        <v>1.03841213996228</v>
       </c>
       <c r="K2">
-        <v>1.038969412916798</v>
+        <v>1.041122723855539</v>
       </c>
       <c r="L2">
-        <v>1.035474755424412</v>
+        <v>1.045838905731709</v>
       </c>
       <c r="M2">
-        <v>1.04307238989456</v>
+        <v>1.057865246688045</v>
       </c>
       <c r="N2">
-        <v>1.01477085312458</v>
+        <v>1.016782337452966</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014607115229141</v>
+        <v>1.034085232048705</v>
       </c>
       <c r="D3">
-        <v>1.03069890860041</v>
+        <v>1.03894417452142</v>
       </c>
       <c r="E3">
-        <v>1.027623308885089</v>
+        <v>1.043810493469389</v>
       </c>
       <c r="F3">
-        <v>1.035995699217483</v>
+        <v>1.056036609161052</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051983278278608</v>
+        <v>1.040250482773939</v>
       </c>
       <c r="J3">
-        <v>1.034707344071977</v>
+        <v>1.038854205460048</v>
       </c>
       <c r="K3">
-        <v>1.040953499404411</v>
+        <v>1.04154302438993</v>
       </c>
       <c r="L3">
-        <v>1.037914535192474</v>
+        <v>1.046396541905605</v>
       </c>
       <c r="M3">
-        <v>1.0461878274807</v>
+        <v>1.058591056900044</v>
       </c>
       <c r="N3">
-        <v>1.015446662499945</v>
+        <v>1.016929443183196</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017011038117402</v>
+        <v>1.034602544887663</v>
       </c>
       <c r="D4">
-        <v>1.032487807274836</v>
+        <v>1.039339094099636</v>
       </c>
       <c r="E4">
-        <v>1.029711366751778</v>
+        <v>1.044294433257219</v>
       </c>
       <c r="F4">
-        <v>1.038513242650843</v>
+        <v>1.05662834880711</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052771838357748</v>
+        <v>1.040384326120727</v>
       </c>
       <c r="J4">
-        <v>1.035989387253291</v>
+        <v>1.039140106620779</v>
       </c>
       <c r="K4">
-        <v>1.042209328430427</v>
+        <v>1.041814643795819</v>
       </c>
       <c r="L4">
-        <v>1.039463953554349</v>
+        <v>1.046757601577994</v>
       </c>
       <c r="M4">
-        <v>1.048168047240836</v>
+        <v>1.059061241960764</v>
       </c>
       <c r="N4">
-        <v>1.015874867165668</v>
+        <v>1.017024559185061</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018011189276976</v>
+        <v>1.034820149051647</v>
       </c>
       <c r="D5">
-        <v>1.03323247634982</v>
+        <v>1.039505200678975</v>
       </c>
       <c r="E5">
-        <v>1.030581382605076</v>
+        <v>1.044498094888756</v>
       </c>
       <c r="F5">
-        <v>1.039562174992251</v>
+        <v>1.056877394723071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053097527983991</v>
+        <v>1.040440337033781</v>
       </c>
       <c r="J5">
-        <v>1.036522034777996</v>
+        <v>1.039260263573682</v>
       </c>
       <c r="K5">
-        <v>1.042730727637183</v>
+        <v>1.041928749155034</v>
       </c>
       <c r="L5">
-        <v>1.040108503033992</v>
+        <v>1.046909445116254</v>
       </c>
       <c r="M5">
-        <v>1.048992228366507</v>
+        <v>1.059259034707658</v>
       </c>
       <c r="N5">
-        <v>1.016052759842386</v>
+        <v>1.017064528451253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018178514894013</v>
+        <v>1.034856693078654</v>
       </c>
       <c r="D6">
-        <v>1.033357082061941</v>
+        <v>1.039533095483804</v>
       </c>
       <c r="E6">
-        <v>1.030727011082341</v>
+        <v>1.044532303030093</v>
       </c>
       <c r="F6">
-        <v>1.039737750087802</v>
+        <v>1.056919226907401</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053151874482983</v>
+        <v>1.04044972642779</v>
       </c>
       <c r="J6">
-        <v>1.036611102323868</v>
+        <v>1.039280436313965</v>
       </c>
       <c r="K6">
-        <v>1.042817893035771</v>
+        <v>1.041947903016524</v>
       </c>
       <c r="L6">
-        <v>1.040216330663398</v>
+        <v>1.046934943442335</v>
       </c>
       <c r="M6">
-        <v>1.049130131830408</v>
+        <v>1.05929225237538</v>
       </c>
       <c r="N6">
-        <v>1.016082505673944</v>
+        <v>1.017071238427695</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017024442862118</v>
+        <v>1.034605452032787</v>
       </c>
       <c r="D7">
-        <v>1.032497786341121</v>
+        <v>1.0393413133024</v>
       </c>
       <c r="E7">
-        <v>1.029723022306793</v>
+        <v>1.044297153757915</v>
       </c>
       <c r="F7">
-        <v>1.038527295251917</v>
+        <v>1.05663167547867</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052776212967492</v>
+        <v>1.040385075551492</v>
       </c>
       <c r="J7">
-        <v>1.035996529156263</v>
+        <v>1.039141712306457</v>
       </c>
       <c r="K7">
-        <v>1.042216320934672</v>
+        <v>1.04181616880669</v>
       </c>
       <c r="L7">
-        <v>1.039472592638354</v>
+        <v>1.0467596303082</v>
       </c>
       <c r="M7">
-        <v>1.048179092306821</v>
+        <v>1.05906388438043</v>
       </c>
       <c r="N7">
-        <v>1.015877252457677</v>
+        <v>1.017025093325679</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012110997272932</v>
+        <v>1.033556378097326</v>
       </c>
       <c r="D8">
-        <v>1.028842887190716</v>
+        <v>1.038540399130587</v>
       </c>
       <c r="E8">
-        <v>1.025459663734093</v>
+        <v>1.043316083753575</v>
       </c>
       <c r="F8">
-        <v>1.03338685326223</v>
+        <v>1.055432126829514</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051156312379928</v>
+        <v>1.040112668021341</v>
       </c>
       <c r="J8">
-        <v>1.033373624641633</v>
+        <v>1.038561567301311</v>
       </c>
       <c r="K8">
-        <v>1.039645838080041</v>
+        <v>1.041264836664253</v>
       </c>
       <c r="L8">
-        <v>1.036305466907816</v>
+        <v>1.046027312632356</v>
       </c>
       <c r="M8">
-        <v>1.044132800043858</v>
+        <v>1.058110425376584</v>
       </c>
       <c r="N8">
-        <v>1.01500115970608</v>
+        <v>1.016832067006731</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003092865845435</v>
+        <v>1.03171193124655</v>
       </c>
       <c r="D9">
-        <v>1.022150936371947</v>
+        <v>1.037131857972484</v>
       </c>
       <c r="E9">
-        <v>1.017679035143725</v>
+        <v>1.041594278123492</v>
       </c>
       <c r="F9">
-        <v>1.02400300014455</v>
+        <v>1.053327428142303</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048106857309671</v>
+        <v>1.03962449811534</v>
       </c>
       <c r="J9">
-        <v>1.028536877803153</v>
+        <v>1.037538223470402</v>
       </c>
       <c r="K9">
-        <v>1.034894569595937</v>
+        <v>1.04029074789939</v>
       </c>
       <c r="L9">
-        <v>1.030491649384062</v>
+        <v>1.044738713995173</v>
       </c>
       <c r="M9">
-        <v>1.036718289494048</v>
+        <v>1.056434498700415</v>
       </c>
       <c r="N9">
-        <v>1.013385336759745</v>
+        <v>1.016491404020991</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9968164188052178</v>
+        <v>1.030485195063617</v>
       </c>
       <c r="D10">
-        <v>1.017507113270864</v>
+        <v>1.036194800856723</v>
       </c>
       <c r="E10">
-        <v>1.012295669911165</v>
+        <v>1.040451200128216</v>
       </c>
       <c r="F10">
-        <v>1.01750743060505</v>
+        <v>1.051930502045378</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045935092763703</v>
+        <v>1.039293619386841</v>
       </c>
       <c r="J10">
-        <v>1.02515691883806</v>
+        <v>1.036855359065626</v>
       </c>
       <c r="K10">
-        <v>1.031567305824539</v>
+        <v>1.039639703574967</v>
       </c>
       <c r="L10">
-        <v>1.026446415187609</v>
+        <v>1.043880970111479</v>
       </c>
       <c r="M10">
-        <v>1.031567617681334</v>
+        <v>1.05532013198781</v>
       </c>
       <c r="N10">
-        <v>1.012256120965604</v>
+        <v>1.016263968283122</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9940306259804238</v>
+        <v>1.029954712708437</v>
       </c>
       <c r="D11">
-        <v>1.015449812638831</v>
+        <v>1.03578953464961</v>
       </c>
       <c r="E11">
-        <v>1.009914244427656</v>
+        <v>1.039957394575644</v>
       </c>
       <c r="F11">
-        <v>1.014633020590306</v>
+        <v>1.051327114034239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044959936282204</v>
+        <v>1.039149067234283</v>
       </c>
       <c r="J11">
-        <v>1.02365386385238</v>
+        <v>1.036559536099111</v>
       </c>
       <c r="K11">
-        <v>1.030086133433785</v>
+        <v>1.039357418610434</v>
       </c>
       <c r="L11">
-        <v>1.024651583630627</v>
+        <v>1.043509889143842</v>
       </c>
       <c r="M11">
-        <v>1.029284156815682</v>
+        <v>1.054838312181585</v>
       </c>
       <c r="N11">
-        <v>1.011753973512482</v>
+        <v>1.016165414116109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9929851514211234</v>
+        <v>1.029757775195478</v>
       </c>
       <c r="D12">
-        <v>1.014678366019877</v>
+        <v>1.035639075532657</v>
       </c>
       <c r="E12">
-        <v>1.009021760605447</v>
+        <v>1.03977414857358</v>
       </c>
       <c r="F12">
-        <v>1.013555609082468</v>
+        <v>1.051103214717097</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044592329013599</v>
+        <v>1.039095182723312</v>
       </c>
       <c r="J12">
-        <v>1.023089388210239</v>
+        <v>1.036449634764609</v>
       </c>
       <c r="K12">
-        <v>1.029529653041486</v>
+        <v>1.039252509844092</v>
       </c>
       <c r="L12">
-        <v>1.023978135234317</v>
+        <v>1.043372103854385</v>
       </c>
       <c r="M12">
-        <v>1.02842763288455</v>
+        <v>1.054659450984028</v>
       </c>
       <c r="N12">
-        <v>1.011565394711804</v>
+        <v>1.016128796194071</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9932099018568119</v>
+        <v>1.029800014079611</v>
       </c>
       <c r="D13">
-        <v>1.014844177889807</v>
+        <v>1.03567134611001</v>
       </c>
       <c r="E13">
-        <v>1.009213565407898</v>
+        <v>1.039813447497228</v>
       </c>
       <c r="F13">
-        <v>1.013787165131452</v>
+        <v>1.051151231628577</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044671428755333</v>
+        <v>1.039106749782113</v>
       </c>
       <c r="J13">
-        <v>1.023210753517805</v>
+        <v>1.036473209836946</v>
       </c>
       <c r="K13">
-        <v>1.029649309229451</v>
+        <v>1.039275015624018</v>
       </c>
       <c r="L13">
-        <v>1.024122903058042</v>
+        <v>1.043401656948832</v>
       </c>
       <c r="M13">
-        <v>1.028611743711646</v>
+        <v>1.054697812397384</v>
       </c>
       <c r="N13">
-        <v>1.011605939964089</v>
+        <v>1.016136651331316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9939444280435048</v>
+        <v>1.029938431594347</v>
       </c>
       <c r="D14">
-        <v>1.015386194722753</v>
+        <v>1.035777096115692</v>
       </c>
       <c r="E14">
-        <v>1.009840634993412</v>
+        <v>1.03994224381567</v>
       </c>
       <c r="F14">
-        <v>1.014544162522687</v>
+        <v>1.051308601828051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044929660721188</v>
+        <v>1.039144617023647</v>
       </c>
       <c r="J14">
-        <v>1.023607331494585</v>
+        <v>1.036550452011378</v>
       </c>
       <c r="K14">
-        <v>1.030040264632101</v>
+        <v>1.03934874794501</v>
       </c>
       <c r="L14">
-        <v>1.024596055887177</v>
+        <v>1.043498498726057</v>
       </c>
       <c r="M14">
-        <v>1.02921352863336</v>
+        <v>1.054823525243443</v>
       </c>
       <c r="N14">
-        <v>1.011738427993241</v>
+        <v>1.016162387479179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9943955601414158</v>
+        <v>1.030023729456834</v>
       </c>
       <c r="D15">
-        <v>1.015719176470728</v>
+        <v>1.035842262150216</v>
       </c>
       <c r="E15">
-        <v>1.010225933608055</v>
+        <v>1.040021622772199</v>
       </c>
       <c r="F15">
-        <v>1.015009270853236</v>
+        <v>1.051405592788859</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045088046468144</v>
+        <v>1.039167922942483</v>
       </c>
       <c r="J15">
-        <v>1.023850850793778</v>
+        <v>1.036598040915923</v>
       </c>
       <c r="K15">
-        <v>1.030280302298021</v>
+        <v>1.039394169537843</v>
       </c>
       <c r="L15">
-        <v>1.024886675641878</v>
+        <v>1.043558172903571</v>
       </c>
       <c r="M15">
-        <v>1.029583191468404</v>
+        <v>1.054900995456652</v>
       </c>
       <c r="N15">
-        <v>1.011819783031698</v>
+        <v>1.016178242989217</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9969998283543459</v>
+        <v>1.030520416377342</v>
       </c>
       <c r="D16">
-        <v>1.01764264570809</v>
+        <v>1.036221707429314</v>
       </c>
       <c r="E16">
-        <v>1.012452626512341</v>
+        <v>1.04048399686619</v>
       </c>
       <c r="F16">
-        <v>1.017696856562579</v>
+        <v>1.051970578485489</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045999064110331</v>
+        <v>1.039303185950107</v>
       </c>
       <c r="J16">
-        <v>1.025255819194339</v>
+        <v>1.036874989056838</v>
       </c>
       <c r="K16">
-        <v>1.031664734840906</v>
+        <v>1.039658430035308</v>
       </c>
       <c r="L16">
-        <v>1.026564598568001</v>
+        <v>1.043905604563793</v>
       </c>
       <c r="M16">
-        <v>1.031718013103976</v>
+        <v>1.055352123851444</v>
       </c>
       <c r="N16">
-        <v>1.012289162452912</v>
+        <v>1.016270507499169</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.99861486570878</v>
+        <v>1.03083216424774</v>
       </c>
       <c r="D17">
-        <v>1.018836540693812</v>
+        <v>1.036459854754994</v>
       </c>
       <c r="E17">
-        <v>1.013835642693239</v>
+        <v>1.0407743424077</v>
       </c>
       <c r="F17">
-        <v>1.019365859954934</v>
+        <v>1.052325379446866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046561097961773</v>
+        <v>1.039387690888035</v>
       </c>
       <c r="J17">
-        <v>1.026126376845028</v>
+        <v>1.037048675195416</v>
       </c>
       <c r="K17">
-        <v>1.032522165778391</v>
+        <v>1.039824093252881</v>
       </c>
       <c r="L17">
-        <v>1.027605355218727</v>
+        <v>1.044123628053664</v>
       </c>
       <c r="M17">
-        <v>1.033042647026724</v>
+        <v>1.055635295624536</v>
       </c>
       <c r="N17">
-        <v>1.012580007362257</v>
+        <v>1.016328363364455</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9995503579573497</v>
+        <v>1.031014069173191</v>
       </c>
       <c r="D18">
-        <v>1.019528453683942</v>
+        <v>1.036598808802482</v>
       </c>
       <c r="E18">
-        <v>1.014637494778107</v>
+        <v>1.040943807341863</v>
       </c>
       <c r="F18">
-        <v>1.020333431343559</v>
+        <v>1.052532472496136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046885579977177</v>
+        <v>1.039436857682188</v>
       </c>
       <c r="J18">
-        <v>1.02663036299607</v>
+        <v>1.037149969966298</v>
       </c>
       <c r="K18">
-        <v>1.033018404614679</v>
+        <v>1.039920685200329</v>
       </c>
       <c r="L18">
-        <v>1.028208260385538</v>
+        <v>1.044250828996348</v>
       </c>
       <c r="M18">
-        <v>1.033810176870019</v>
+        <v>1.055800533157983</v>
       </c>
       <c r="N18">
-        <v>1.012748385127064</v>
+        <v>1.01636210263905</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9998682429616603</v>
+        <v>1.031076105477438</v>
       </c>
       <c r="D19">
-        <v>1.019763629155026</v>
+        <v>1.036646196414395</v>
       </c>
       <c r="E19">
-        <v>1.014910095207525</v>
+        <v>1.04100160932499</v>
       </c>
       <c r="F19">
-        <v>1.020662355446937</v>
+        <v>1.052603110180024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04699565787796</v>
+        <v>1.039453601314587</v>
       </c>
       <c r="J19">
-        <v>1.026801572490882</v>
+        <v>1.037184506552122</v>
       </c>
       <c r="K19">
-        <v>1.033186956866578</v>
+        <v>1.039953614309922</v>
       </c>
       <c r="L19">
-        <v>1.028413139551402</v>
+        <v>1.044294206534292</v>
       </c>
       <c r="M19">
-        <v>1.03407102895606</v>
+        <v>1.055856886407523</v>
       </c>
       <c r="N19">
-        <v>1.012805584937189</v>
+        <v>1.016373605646425</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984422664944735</v>
+        <v>1.030798709640145</v>
       </c>
       <c r="D20">
-        <v>1.018708911007622</v>
+        <v>1.036434298952887</v>
       </c>
       <c r="E20">
-        <v>1.013687760983155</v>
+        <v>1.040743179553898</v>
       </c>
       <c r="F20">
-        <v>1.019187408196126</v>
+        <v>1.052287297788781</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046501143990212</v>
+        <v>1.039378637076861</v>
       </c>
       <c r="J20">
-        <v>1.026033368501327</v>
+        <v>1.037030041695105</v>
       </c>
       <c r="K20">
-        <v>1.032430575138199</v>
+        <v>1.039806322934257</v>
       </c>
       <c r="L20">
-        <v>1.027494123131438</v>
+        <v>1.044100232924776</v>
       </c>
       <c r="M20">
-        <v>1.03290105705136</v>
+        <v>1.055604906903584</v>
       </c>
       <c r="N20">
-        <v>1.012548934067813</v>
+        <v>1.016322156705977</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9937284279821135</v>
+        <v>1.029897668111762</v>
       </c>
       <c r="D21">
-        <v>1.015226787457278</v>
+        <v>1.035745953295372</v>
       </c>
       <c r="E21">
-        <v>1.009656200031931</v>
+        <v>1.039904311654005</v>
       </c>
       <c r="F21">
-        <v>1.014321517891335</v>
+        <v>1.051262253976104</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044853768046135</v>
+        <v>1.039133471341948</v>
       </c>
       <c r="J21">
-        <v>1.023490721581672</v>
+        <v>1.036527706644877</v>
       </c>
       <c r="K21">
-        <v>1.029925314033453</v>
+        <v>1.039327037137549</v>
       </c>
       <c r="L21">
-        <v>1.024456913290347</v>
+        <v>1.043469979824997</v>
       </c>
       <c r="M21">
-        <v>1.02903655128008</v>
+        <v>1.054786502944876</v>
       </c>
       <c r="N21">
-        <v>1.011699471049357</v>
+        <v>1.01615480911178</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9907024423349985</v>
+        <v>1.029331768924013</v>
       </c>
       <c r="D22">
-        <v>1.012995200904073</v>
+        <v>1.035313596712513</v>
       </c>
       <c r="E22">
-        <v>1.007075410615176</v>
+        <v>1.039377897657263</v>
       </c>
       <c r="F22">
-        <v>1.011205619214532</v>
+        <v>1.050619075956232</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043786718283958</v>
+        <v>1.038978218909505</v>
       </c>
       <c r="J22">
-        <v>1.021856209040563</v>
+        <v>1.036211756380105</v>
       </c>
       <c r="K22">
-        <v>1.028313542504375</v>
+        <v>1.039025370313996</v>
       </c>
       <c r="L22">
-        <v>1.022507993351494</v>
+        <v>1.043074008766879</v>
       </c>
       <c r="M22">
-        <v>1.026558311747361</v>
+        <v>1.054272566357356</v>
       </c>
       <c r="N22">
-        <v>1.011153426298856</v>
+        <v>1.016049530415692</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9923126401638768</v>
+        <v>1.029631703319205</v>
       </c>
       <c r="D23">
-        <v>1.014182311290347</v>
+        <v>1.03554275540385</v>
       </c>
       <c r="E23">
-        <v>1.008448015422976</v>
+        <v>1.039656862788632</v>
       </c>
       <c r="F23">
-        <v>1.012862928855362</v>
+        <v>1.050959912180334</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044355404864006</v>
+        <v>1.039060625817795</v>
       </c>
       <c r="J23">
-        <v>1.022726176328789</v>
+        <v>1.036379257820508</v>
       </c>
       <c r="K23">
-        <v>1.029171524213024</v>
+        <v>1.039185319581077</v>
       </c>
       <c r="L23">
-        <v>1.023544974363356</v>
+        <v>1.043283892154991</v>
       </c>
       <c r="M23">
-        <v>1.027876791588379</v>
+        <v>1.054544953912919</v>
       </c>
       <c r="N23">
-        <v>1.011444055017974</v>
+        <v>1.016105346240549</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9985202768001553</v>
+        <v>1.03081382612841</v>
       </c>
       <c r="D24">
-        <v>1.018766595149149</v>
+        <v>1.036445846375636</v>
       </c>
       <c r="E24">
-        <v>1.013754597288333</v>
+        <v>1.04075726036251</v>
       </c>
       <c r="F24">
-        <v>1.019268061158438</v>
+        <v>1.052304504807252</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046528244927538</v>
+        <v>1.039382728486127</v>
       </c>
       <c r="J24">
-        <v>1.026075406680226</v>
+        <v>1.037038461413432</v>
       </c>
       <c r="K24">
-        <v>1.032471972998827</v>
+        <v>1.039814352689594</v>
       </c>
       <c r="L24">
-        <v>1.027544396930666</v>
+        <v>1.044110804079251</v>
       </c>
       <c r="M24">
-        <v>1.032965051222527</v>
+        <v>1.055618638047911</v>
       </c>
       <c r="N24">
-        <v>1.012562978662391</v>
+        <v>1.016324961249691</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005469153506837</v>
+        <v>1.032188262109183</v>
       </c>
       <c r="D25">
-        <v>1.023912111838568</v>
+        <v>1.037495660136872</v>
       </c>
       <c r="E25">
-        <v>1.01972388078551</v>
+        <v>1.042038569465596</v>
       </c>
       <c r="F25">
-        <v>1.026469612456691</v>
+        <v>1.0538704577423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048919087311023</v>
+        <v>1.039751662816409</v>
       </c>
       <c r="J25">
-        <v>1.029813850332758</v>
+        <v>1.037802899723618</v>
       </c>
       <c r="K25">
-        <v>1.03615022668009</v>
+        <v>1.040542869960728</v>
       </c>
       <c r="L25">
-        <v>1.032023534761226</v>
+        <v>1.045071620911137</v>
       </c>
       <c r="M25">
-        <v>1.038670462211975</v>
+        <v>1.056867259020863</v>
       </c>
       <c r="N25">
-        <v>1.013811957596755</v>
+        <v>1.016579533160116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033286581860451</v>
+        <v>1.010822420729284</v>
       </c>
       <c r="D2">
-        <v>1.038334395248997</v>
+        <v>1.027885362712782</v>
       </c>
       <c r="E2">
-        <v>1.043063984897162</v>
+        <v>1.024344471130062</v>
       </c>
       <c r="F2">
-        <v>1.05512392456556</v>
+        <v>1.03204210878072</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040041983958494</v>
+        <v>1.050726318567992</v>
       </c>
       <c r="J2">
-        <v>1.03841213996228</v>
+        <v>1.032684184108494</v>
       </c>
       <c r="K2">
-        <v>1.041122723855539</v>
+        <v>1.038969412916798</v>
       </c>
       <c r="L2">
-        <v>1.045838905731709</v>
+        <v>1.035474755424411</v>
       </c>
       <c r="M2">
-        <v>1.057865246688045</v>
+        <v>1.04307238989456</v>
       </c>
       <c r="N2">
-        <v>1.016782337452966</v>
+        <v>1.01477085312458</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034085232048705</v>
+        <v>1.014607115229141</v>
       </c>
       <c r="D3">
-        <v>1.03894417452142</v>
+        <v>1.03069890860041</v>
       </c>
       <c r="E3">
-        <v>1.043810493469389</v>
+        <v>1.027623308885089</v>
       </c>
       <c r="F3">
-        <v>1.056036609161052</v>
+        <v>1.035995699217483</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040250482773939</v>
+        <v>1.051983278278607</v>
       </c>
       <c r="J3">
-        <v>1.038854205460048</v>
+        <v>1.034707344071977</v>
       </c>
       <c r="K3">
-        <v>1.04154302438993</v>
+        <v>1.040953499404411</v>
       </c>
       <c r="L3">
-        <v>1.046396541905605</v>
+        <v>1.037914535192474</v>
       </c>
       <c r="M3">
-        <v>1.058591056900044</v>
+        <v>1.046187827480699</v>
       </c>
       <c r="N3">
-        <v>1.016929443183196</v>
+        <v>1.015446662499945</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034602544887663</v>
+        <v>1.017011038117402</v>
       </c>
       <c r="D4">
-        <v>1.039339094099636</v>
+        <v>1.032487807274837</v>
       </c>
       <c r="E4">
-        <v>1.044294433257219</v>
+        <v>1.029711366751778</v>
       </c>
       <c r="F4">
-        <v>1.05662834880711</v>
+        <v>1.038513242650843</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040384326120727</v>
+        <v>1.052771838357748</v>
       </c>
       <c r="J4">
-        <v>1.039140106620779</v>
+        <v>1.035989387253291</v>
       </c>
       <c r="K4">
-        <v>1.041814643795819</v>
+        <v>1.042209328430427</v>
       </c>
       <c r="L4">
-        <v>1.046757601577994</v>
+        <v>1.039463953554349</v>
       </c>
       <c r="M4">
-        <v>1.059061241960764</v>
+        <v>1.048168047240836</v>
       </c>
       <c r="N4">
-        <v>1.017024559185061</v>
+        <v>1.015874867165667</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034820149051647</v>
+        <v>1.018011189276976</v>
       </c>
       <c r="D5">
-        <v>1.039505200678975</v>
+        <v>1.03323247634982</v>
       </c>
       <c r="E5">
-        <v>1.044498094888756</v>
+        <v>1.030581382605076</v>
       </c>
       <c r="F5">
-        <v>1.056877394723071</v>
+        <v>1.03956217499225</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040440337033781</v>
+        <v>1.053097527983991</v>
       </c>
       <c r="J5">
-        <v>1.039260263573682</v>
+        <v>1.036522034777996</v>
       </c>
       <c r="K5">
-        <v>1.041928749155034</v>
+        <v>1.042730727637183</v>
       </c>
       <c r="L5">
-        <v>1.046909445116254</v>
+        <v>1.040108503033992</v>
       </c>
       <c r="M5">
-        <v>1.059259034707658</v>
+        <v>1.048992228366507</v>
       </c>
       <c r="N5">
-        <v>1.017064528451253</v>
+        <v>1.016052759842386</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034856693078654</v>
+        <v>1.018178514894013</v>
       </c>
       <c r="D6">
-        <v>1.039533095483804</v>
+        <v>1.033357082061941</v>
       </c>
       <c r="E6">
-        <v>1.044532303030093</v>
+        <v>1.030727011082341</v>
       </c>
       <c r="F6">
-        <v>1.056919226907401</v>
+        <v>1.039737750087802</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04044972642779</v>
+        <v>1.053151874482983</v>
       </c>
       <c r="J6">
-        <v>1.039280436313965</v>
+        <v>1.036611102323868</v>
       </c>
       <c r="K6">
-        <v>1.041947903016524</v>
+        <v>1.042817893035771</v>
       </c>
       <c r="L6">
-        <v>1.046934943442335</v>
+        <v>1.040216330663399</v>
       </c>
       <c r="M6">
-        <v>1.05929225237538</v>
+        <v>1.049130131830408</v>
       </c>
       <c r="N6">
-        <v>1.017071238427695</v>
+        <v>1.016082505673944</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034605452032787</v>
+        <v>1.017024442862118</v>
       </c>
       <c r="D7">
-        <v>1.0393413133024</v>
+        <v>1.032497786341121</v>
       </c>
       <c r="E7">
-        <v>1.044297153757915</v>
+        <v>1.029723022306793</v>
       </c>
       <c r="F7">
-        <v>1.05663167547867</v>
+        <v>1.038527295251918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040385075551492</v>
+        <v>1.052776212967492</v>
       </c>
       <c r="J7">
-        <v>1.039141712306457</v>
+        <v>1.035996529156262</v>
       </c>
       <c r="K7">
-        <v>1.04181616880669</v>
+        <v>1.042216320934671</v>
       </c>
       <c r="L7">
-        <v>1.0467596303082</v>
+        <v>1.039472592638354</v>
       </c>
       <c r="M7">
-        <v>1.05906388438043</v>
+        <v>1.048179092306821</v>
       </c>
       <c r="N7">
-        <v>1.017025093325679</v>
+        <v>1.015877252457677</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033556378097326</v>
+        <v>1.012110997272932</v>
       </c>
       <c r="D8">
-        <v>1.038540399130587</v>
+        <v>1.028842887190716</v>
       </c>
       <c r="E8">
-        <v>1.043316083753575</v>
+        <v>1.025459663734093</v>
       </c>
       <c r="F8">
-        <v>1.055432126829514</v>
+        <v>1.033386853262229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040112668021341</v>
+        <v>1.051156312379928</v>
       </c>
       <c r="J8">
-        <v>1.038561567301311</v>
+        <v>1.033373624641633</v>
       </c>
       <c r="K8">
-        <v>1.041264836664253</v>
+        <v>1.039645838080041</v>
       </c>
       <c r="L8">
-        <v>1.046027312632356</v>
+        <v>1.036305466907816</v>
       </c>
       <c r="M8">
-        <v>1.058110425376584</v>
+        <v>1.044132800043857</v>
       </c>
       <c r="N8">
-        <v>1.016832067006731</v>
+        <v>1.01500115970608</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03171193124655</v>
+        <v>1.003092865845435</v>
       </c>
       <c r="D9">
-        <v>1.037131857972484</v>
+        <v>1.022150936371947</v>
       </c>
       <c r="E9">
-        <v>1.041594278123492</v>
+        <v>1.017679035143725</v>
       </c>
       <c r="F9">
-        <v>1.053327428142303</v>
+        <v>1.024003000144551</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03962449811534</v>
+        <v>1.048106857309671</v>
       </c>
       <c r="J9">
-        <v>1.037538223470402</v>
+        <v>1.028536877803153</v>
       </c>
       <c r="K9">
-        <v>1.04029074789939</v>
+        <v>1.034894569595937</v>
       </c>
       <c r="L9">
-        <v>1.044738713995173</v>
+        <v>1.030491649384062</v>
       </c>
       <c r="M9">
-        <v>1.056434498700415</v>
+        <v>1.036718289494048</v>
       </c>
       <c r="N9">
-        <v>1.016491404020991</v>
+        <v>1.013385336759745</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030485195063617</v>
+        <v>0.9968164188052165</v>
       </c>
       <c r="D10">
-        <v>1.036194800856723</v>
+        <v>1.017507113270864</v>
       </c>
       <c r="E10">
-        <v>1.040451200128216</v>
+        <v>1.012295669911163</v>
       </c>
       <c r="F10">
-        <v>1.051930502045378</v>
+        <v>1.017507430605048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039293619386841</v>
+        <v>1.045935092763702</v>
       </c>
       <c r="J10">
-        <v>1.036855359065626</v>
+        <v>1.025156918838059</v>
       </c>
       <c r="K10">
-        <v>1.039639703574967</v>
+        <v>1.031567305824538</v>
       </c>
       <c r="L10">
-        <v>1.043880970111479</v>
+        <v>1.026446415187608</v>
       </c>
       <c r="M10">
-        <v>1.05532013198781</v>
+        <v>1.031567617681333</v>
       </c>
       <c r="N10">
-        <v>1.016263968283122</v>
+        <v>1.012256120965604</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029954712708437</v>
+        <v>0.9940306259804236</v>
       </c>
       <c r="D11">
-        <v>1.03578953464961</v>
+        <v>1.01544981263883</v>
       </c>
       <c r="E11">
-        <v>1.039957394575644</v>
+        <v>1.009914244427656</v>
       </c>
       <c r="F11">
-        <v>1.051327114034239</v>
+        <v>1.014633020590305</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039149067234283</v>
+        <v>1.044959936282204</v>
       </c>
       <c r="J11">
-        <v>1.036559536099111</v>
+        <v>1.023653863852379</v>
       </c>
       <c r="K11">
-        <v>1.039357418610434</v>
+        <v>1.030086133433785</v>
       </c>
       <c r="L11">
-        <v>1.043509889143842</v>
+        <v>1.024651583630627</v>
       </c>
       <c r="M11">
-        <v>1.054838312181585</v>
+        <v>1.029284156815682</v>
       </c>
       <c r="N11">
-        <v>1.016165414116109</v>
+        <v>1.011753973512481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029757775195478</v>
+        <v>0.9929851514211233</v>
       </c>
       <c r="D12">
-        <v>1.035639075532657</v>
+        <v>1.014678366019877</v>
       </c>
       <c r="E12">
-        <v>1.03977414857358</v>
+        <v>1.009021760605446</v>
       </c>
       <c r="F12">
-        <v>1.051103214717097</v>
+        <v>1.013555609082468</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039095182723312</v>
+        <v>1.044592329013599</v>
       </c>
       <c r="J12">
-        <v>1.036449634764609</v>
+        <v>1.023089388210239</v>
       </c>
       <c r="K12">
-        <v>1.039252509844092</v>
+        <v>1.029529653041486</v>
       </c>
       <c r="L12">
-        <v>1.043372103854385</v>
+        <v>1.023978135234316</v>
       </c>
       <c r="M12">
-        <v>1.054659450984028</v>
+        <v>1.02842763288455</v>
       </c>
       <c r="N12">
-        <v>1.016128796194071</v>
+        <v>1.011565394711804</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029800014079611</v>
+        <v>0.9932099018568114</v>
       </c>
       <c r="D13">
-        <v>1.03567134611001</v>
+        <v>1.014844177889807</v>
       </c>
       <c r="E13">
-        <v>1.039813447497228</v>
+        <v>1.009213565407898</v>
       </c>
       <c r="F13">
-        <v>1.051151231628577</v>
+        <v>1.013787165131451</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039106749782113</v>
+        <v>1.044671428755333</v>
       </c>
       <c r="J13">
-        <v>1.036473209836946</v>
+        <v>1.023210753517805</v>
       </c>
       <c r="K13">
-        <v>1.039275015624018</v>
+        <v>1.02964930922945</v>
       </c>
       <c r="L13">
-        <v>1.043401656948832</v>
+        <v>1.024122903058042</v>
       </c>
       <c r="M13">
-        <v>1.054697812397384</v>
+        <v>1.028611743711646</v>
       </c>
       <c r="N13">
-        <v>1.016136651331316</v>
+        <v>1.011605939964089</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029938431594347</v>
+        <v>0.9939444280435041</v>
       </c>
       <c r="D14">
-        <v>1.035777096115692</v>
+        <v>1.015386194722752</v>
       </c>
       <c r="E14">
-        <v>1.03994224381567</v>
+        <v>1.009840634993411</v>
       </c>
       <c r="F14">
-        <v>1.051308601828051</v>
+        <v>1.014544162522686</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039144617023647</v>
+        <v>1.044929660721187</v>
       </c>
       <c r="J14">
-        <v>1.036550452011378</v>
+        <v>1.023607331494585</v>
       </c>
       <c r="K14">
-        <v>1.03934874794501</v>
+        <v>1.0300402646321</v>
       </c>
       <c r="L14">
-        <v>1.043498498726057</v>
+        <v>1.024596055887176</v>
       </c>
       <c r="M14">
-        <v>1.054823525243443</v>
+        <v>1.029213528633359</v>
       </c>
       <c r="N14">
-        <v>1.016162387479179</v>
+        <v>1.01173842799324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030023729456834</v>
+        <v>0.9943955601414146</v>
       </c>
       <c r="D15">
-        <v>1.035842262150216</v>
+        <v>1.015719176470727</v>
       </c>
       <c r="E15">
-        <v>1.040021622772199</v>
+        <v>1.010225933608054</v>
       </c>
       <c r="F15">
-        <v>1.051405592788859</v>
+        <v>1.015009270853234</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039167922942483</v>
+        <v>1.045088046468143</v>
       </c>
       <c r="J15">
-        <v>1.036598040915923</v>
+        <v>1.023850850793777</v>
       </c>
       <c r="K15">
-        <v>1.039394169537843</v>
+        <v>1.03028030229802</v>
       </c>
       <c r="L15">
-        <v>1.043558172903571</v>
+        <v>1.024886675641876</v>
       </c>
       <c r="M15">
-        <v>1.054900995456652</v>
+        <v>1.029583191468403</v>
       </c>
       <c r="N15">
-        <v>1.016178242989217</v>
+        <v>1.011819783031698</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030520416377342</v>
+        <v>0.9969998283543452</v>
       </c>
       <c r="D16">
-        <v>1.036221707429314</v>
+        <v>1.017642645708089</v>
       </c>
       <c r="E16">
-        <v>1.04048399686619</v>
+        <v>1.01245262651234</v>
       </c>
       <c r="F16">
-        <v>1.051970578485489</v>
+        <v>1.017696856562578</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039303185950107</v>
+        <v>1.045999064110331</v>
       </c>
       <c r="J16">
-        <v>1.036874989056838</v>
+        <v>1.025255819194338</v>
       </c>
       <c r="K16">
-        <v>1.039658430035308</v>
+        <v>1.031664734840906</v>
       </c>
       <c r="L16">
-        <v>1.043905604563793</v>
+        <v>1.026564598568</v>
       </c>
       <c r="M16">
-        <v>1.055352123851444</v>
+        <v>1.031718013103976</v>
       </c>
       <c r="N16">
-        <v>1.016270507499169</v>
+        <v>1.012289162452912</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03083216424774</v>
+        <v>0.9986148657087801</v>
       </c>
       <c r="D17">
-        <v>1.036459854754994</v>
+        <v>1.018836540693811</v>
       </c>
       <c r="E17">
-        <v>1.0407743424077</v>
+        <v>1.01383564269324</v>
       </c>
       <c r="F17">
-        <v>1.052325379446866</v>
+        <v>1.019365859954934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039387690888035</v>
+        <v>1.046561097961773</v>
       </c>
       <c r="J17">
-        <v>1.037048675195416</v>
+        <v>1.026126376845028</v>
       </c>
       <c r="K17">
-        <v>1.039824093252881</v>
+        <v>1.032522165778391</v>
       </c>
       <c r="L17">
-        <v>1.044123628053664</v>
+        <v>1.027605355218727</v>
       </c>
       <c r="M17">
-        <v>1.055635295624536</v>
+        <v>1.033042647026724</v>
       </c>
       <c r="N17">
-        <v>1.016328363364455</v>
+        <v>1.012580007362257</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031014069173191</v>
+        <v>0.99955035795735</v>
       </c>
       <c r="D18">
-        <v>1.036598808802482</v>
+        <v>1.019528453683942</v>
       </c>
       <c r="E18">
-        <v>1.040943807341863</v>
+        <v>1.014637494778107</v>
       </c>
       <c r="F18">
-        <v>1.052532472496136</v>
+        <v>1.02033343134356</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039436857682188</v>
+        <v>1.046885579977177</v>
       </c>
       <c r="J18">
-        <v>1.037149969966298</v>
+        <v>1.02663036299607</v>
       </c>
       <c r="K18">
-        <v>1.039920685200329</v>
+        <v>1.033018404614679</v>
       </c>
       <c r="L18">
-        <v>1.044250828996348</v>
+        <v>1.028208260385538</v>
       </c>
       <c r="M18">
-        <v>1.055800533157983</v>
+        <v>1.033810176870019</v>
       </c>
       <c r="N18">
-        <v>1.01636210263905</v>
+        <v>1.012748385127064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031076105477438</v>
+        <v>0.9998682429616594</v>
       </c>
       <c r="D19">
-        <v>1.036646196414395</v>
+        <v>1.019763629155026</v>
       </c>
       <c r="E19">
-        <v>1.04100160932499</v>
+        <v>1.014910095207524</v>
       </c>
       <c r="F19">
-        <v>1.052603110180024</v>
+        <v>1.020662355446935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039453601314587</v>
+        <v>1.046995657877959</v>
       </c>
       <c r="J19">
-        <v>1.037184506552122</v>
+        <v>1.026801572490882</v>
       </c>
       <c r="K19">
-        <v>1.039953614309922</v>
+        <v>1.033186956866577</v>
       </c>
       <c r="L19">
-        <v>1.044294206534292</v>
+        <v>1.0284131395514</v>
       </c>
       <c r="M19">
-        <v>1.055856886407523</v>
+        <v>1.034071028956059</v>
       </c>
       <c r="N19">
-        <v>1.016373605646425</v>
+        <v>1.012805584937189</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030798709640145</v>
+        <v>0.9984422664944738</v>
       </c>
       <c r="D20">
-        <v>1.036434298952887</v>
+        <v>1.018708911007622</v>
       </c>
       <c r="E20">
-        <v>1.040743179553898</v>
+        <v>1.013687760983155</v>
       </c>
       <c r="F20">
-        <v>1.052287297788781</v>
+        <v>1.019187408196126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039378637076861</v>
+        <v>1.046501143990213</v>
       </c>
       <c r="J20">
-        <v>1.037030041695105</v>
+        <v>1.026033368501328</v>
       </c>
       <c r="K20">
-        <v>1.039806322934257</v>
+        <v>1.032430575138199</v>
       </c>
       <c r="L20">
-        <v>1.044100232924776</v>
+        <v>1.027494123131438</v>
       </c>
       <c r="M20">
-        <v>1.055604906903584</v>
+        <v>1.032901057051361</v>
       </c>
       <c r="N20">
-        <v>1.016322156705977</v>
+        <v>1.012548934067813</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029897668111762</v>
+        <v>0.9937284279821125</v>
       </c>
       <c r="D21">
-        <v>1.035745953295372</v>
+        <v>1.015226787457277</v>
       </c>
       <c r="E21">
-        <v>1.039904311654005</v>
+        <v>1.00965620003193</v>
       </c>
       <c r="F21">
-        <v>1.051262253976104</v>
+        <v>1.014321517891335</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039133471341948</v>
+        <v>1.044853768046135</v>
       </c>
       <c r="J21">
-        <v>1.036527706644877</v>
+        <v>1.023490721581672</v>
       </c>
       <c r="K21">
-        <v>1.039327037137549</v>
+        <v>1.029925314033452</v>
       </c>
       <c r="L21">
-        <v>1.043469979824997</v>
+        <v>1.024456913290346</v>
       </c>
       <c r="M21">
-        <v>1.054786502944876</v>
+        <v>1.02903655128008</v>
       </c>
       <c r="N21">
-        <v>1.01615480911178</v>
+        <v>1.011699471049357</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029331768924013</v>
+        <v>0.9907024423349987</v>
       </c>
       <c r="D22">
-        <v>1.035313596712513</v>
+        <v>1.012995200904073</v>
       </c>
       <c r="E22">
-        <v>1.039377897657263</v>
+        <v>1.007075410615176</v>
       </c>
       <c r="F22">
-        <v>1.050619075956232</v>
+        <v>1.011205619214532</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038978218909505</v>
+        <v>1.043786718283958</v>
       </c>
       <c r="J22">
-        <v>1.036211756380105</v>
+        <v>1.021856209040563</v>
       </c>
       <c r="K22">
-        <v>1.039025370313996</v>
+        <v>1.028313542504375</v>
       </c>
       <c r="L22">
-        <v>1.043074008766879</v>
+        <v>1.022507993351494</v>
       </c>
       <c r="M22">
-        <v>1.054272566357356</v>
+        <v>1.026558311747362</v>
       </c>
       <c r="N22">
-        <v>1.016049530415692</v>
+        <v>1.011153426298856</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029631703319205</v>
+        <v>0.9923126401638762</v>
       </c>
       <c r="D23">
-        <v>1.03554275540385</v>
+        <v>1.014182311290347</v>
       </c>
       <c r="E23">
-        <v>1.039656862788632</v>
+        <v>1.008448015422976</v>
       </c>
       <c r="F23">
-        <v>1.050959912180334</v>
+        <v>1.012862928855361</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039060625817795</v>
+        <v>1.044355404864006</v>
       </c>
       <c r="J23">
-        <v>1.036379257820508</v>
+        <v>1.022726176328788</v>
       </c>
       <c r="K23">
-        <v>1.039185319581077</v>
+        <v>1.029171524213023</v>
       </c>
       <c r="L23">
-        <v>1.043283892154991</v>
+        <v>1.023544974363355</v>
       </c>
       <c r="M23">
-        <v>1.054544953912919</v>
+        <v>1.027876791588379</v>
       </c>
       <c r="N23">
-        <v>1.016105346240549</v>
+        <v>1.011444055017974</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03081382612841</v>
+        <v>0.9985202768001553</v>
       </c>
       <c r="D24">
-        <v>1.036445846375636</v>
+        <v>1.018766595149149</v>
       </c>
       <c r="E24">
-        <v>1.04075726036251</v>
+        <v>1.013754597288333</v>
       </c>
       <c r="F24">
-        <v>1.052304504807252</v>
+        <v>1.019268061158437</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039382728486127</v>
+        <v>1.046528244927539</v>
       </c>
       <c r="J24">
-        <v>1.037038461413432</v>
+        <v>1.026075406680226</v>
       </c>
       <c r="K24">
-        <v>1.039814352689594</v>
+        <v>1.032471972998827</v>
       </c>
       <c r="L24">
-        <v>1.044110804079251</v>
+        <v>1.027544396930666</v>
       </c>
       <c r="M24">
-        <v>1.055618638047911</v>
+        <v>1.032965051222527</v>
       </c>
       <c r="N24">
-        <v>1.016324961249691</v>
+        <v>1.012562978662391</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032188262109183</v>
+        <v>1.005469153506837</v>
       </c>
       <c r="D25">
-        <v>1.037495660136872</v>
+        <v>1.023912111838569</v>
       </c>
       <c r="E25">
-        <v>1.042038569465596</v>
+        <v>1.01972388078551</v>
       </c>
       <c r="F25">
-        <v>1.0538704577423</v>
+        <v>1.026469612456691</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039751662816409</v>
+        <v>1.048919087311023</v>
       </c>
       <c r="J25">
-        <v>1.037802899723618</v>
+        <v>1.029813850332758</v>
       </c>
       <c r="K25">
-        <v>1.040542869960728</v>
+        <v>1.03615022668009</v>
       </c>
       <c r="L25">
-        <v>1.045071620911137</v>
+        <v>1.032023534761226</v>
       </c>
       <c r="M25">
-        <v>1.056867259020863</v>
+        <v>1.038670462211975</v>
       </c>
       <c r="N25">
-        <v>1.016579533160116</v>
+        <v>1.013811957596755</v>
       </c>
     </row>
   </sheetData>
